--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-09-the-sortby-function.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-09-the-sortby-function.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{DE2CDD56-F76A-4ED5-A8C2-15D2605CC690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FB4FD8D-4EE3-4DAF-9B79-71650B2A01BF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A11C7A-A1C3-41D9-BF18-1294866FB62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6696" yWindow="912" windowWidth="14712" windowHeight="12180" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="SORTBY" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>Book</t>
   </si>
@@ -245,18 +267,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -524,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E86906-9D4F-417C-B01C-B523EEC5EA67}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -538,15 +549,17 @@
     <col min="4" max="4" width="15.796875" customWidth="1"/>
     <col min="5" max="9" width="7.19921875" customWidth="1"/>
     <col min="10" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="34.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.3984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -574,8 +587,14 @@
       <c r="I3" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -603,8 +622,15 @@
       <c r="I4" s="5">
         <v>199</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4" t="str" cm="1">
+        <f t="array" ref="L4:M20">_xlfn.SORTBY(A4:B20,I4:I20,-1)</f>
+        <v>Harry Potter and the Prisoner of Azkaban</v>
+      </c>
+      <c r="M4" t="str">
+        <v>J.K. Rowling</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -632,8 +658,14 @@
       <c r="I5" s="5">
         <v>150</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L5" t="str">
+        <v>Dream of the Red Chamber</v>
+      </c>
+      <c r="M5" t="str">
+        <v>Cao Xueqin</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -661,8 +693,14 @@
       <c r="I6" s="5">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L6" t="str">
+        <v>The Catcher in the Rye</v>
+      </c>
+      <c r="M6" t="str">
+        <v>J.D. Salinger</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -690,8 +728,14 @@
       <c r="I7" s="5">
         <v>544</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L7" t="str">
+        <v>The Alchemist</v>
+      </c>
+      <c r="M7" t="str">
+        <v>Paulo Coelho</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -719,8 +763,14 @@
       <c r="I8" s="5">
         <v>898</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L8" t="str">
+        <v>The Lion, The Witch and The Wardrobe</v>
+      </c>
+      <c r="M8" t="str">
+        <v>C.S. Lewis</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -748,8 +798,14 @@
       <c r="I9" s="5">
         <v>705</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L9" t="str">
+        <v>And Then There Were None</v>
+      </c>
+      <c r="M9" t="str">
+        <v>Agatha Christie</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -777,8 +833,14 @@
       <c r="I10" s="5">
         <v>715</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L10" t="str">
+        <v>Harry Potter and the Deathly Hallows</v>
+      </c>
+      <c r="M10" t="str">
+        <v>J.K. Rowling</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -806,8 +868,14 @@
       <c r="I11" s="5">
         <v>443</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L11" t="str">
+        <v>The Little Prince</v>
+      </c>
+      <c r="M11" t="str">
+        <v>Antoine de Saint-Exupery</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -835,8 +903,14 @@
       <c r="I12" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L12" t="str">
+        <v>Harry Potter and the Gobblet of Fire</v>
+      </c>
+      <c r="M12" t="str">
+        <v>J.K. Rowling</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -864,8 +938,14 @@
       <c r="I13" s="5">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L13" t="str">
+        <v>She: A History of Adventure</v>
+      </c>
+      <c r="M13" t="str">
+        <v>H.Rider Haggard</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
@@ -893,8 +973,14 @@
       <c r="I14" s="5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L14" t="str">
+        <v>Harry Potter and the Order of the Phoenix</v>
+      </c>
+      <c r="M14" t="str">
+        <v>J.K. Rowling</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -922,8 +1008,14 @@
       <c r="I15" s="5">
         <v>511</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L15" t="str">
+        <v>A Tale of Two Cities</v>
+      </c>
+      <c r="M15" t="str">
+        <v>Charles Dickens</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -951,8 +1043,14 @@
       <c r="I16" s="5">
         <v>382</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L16" t="str">
+        <v>The Hobbit</v>
+      </c>
+      <c r="M16" t="str">
+        <v>J.R.R. Tolkien</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -980,8 +1078,14 @@
       <c r="I17" s="5">
         <v>143</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L17" t="str">
+        <v>Harry Potter and the Half-Blood Prince</v>
+      </c>
+      <c r="M17" t="str">
+        <v>J.K. Rowling</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
@@ -1009,8 +1113,14 @@
       <c r="I18" s="5">
         <v>696</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L18" t="str">
+        <v>Harry Potter and the Chamber of Secrets</v>
+      </c>
+      <c r="M18" t="str">
+        <v>J.K. Rowling</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1038,8 +1148,14 @@
       <c r="I19" s="5">
         <v>833</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L19" t="str">
+        <v>Harry Potter and the Philosophers Stone</v>
+      </c>
+      <c r="M19" t="str">
+        <v>J.K. Rowling</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
@@ -1066,6 +1182,157 @@
       </c>
       <c r="I20" s="5">
         <v>853</v>
+      </c>
+      <c r="L20" t="str">
+        <v>The Da Vinci Code</v>
+      </c>
+      <c r="M20" t="str">
+        <v>Dan Brown</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L25" t="str" cm="1">
+        <f t="array" ref="L25:M41">_xlfn.SORTBY(A4:B20,C4:C20,1,E4:E20,-1)</f>
+        <v>She: A History of Adventure</v>
+      </c>
+      <c r="M25" t="str">
+        <v>H.Rider Haggard</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L26" t="str">
+        <v>The Catcher in the Rye</v>
+      </c>
+      <c r="M26" t="str">
+        <v>J.D. Salinger</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L27" t="str">
+        <v>Dream of the Red Chamber</v>
+      </c>
+      <c r="M27" t="str">
+        <v>Cao Xueqin</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L28" t="str">
+        <v>The Lion, The Witch and The Wardrobe</v>
+      </c>
+      <c r="M28" t="str">
+        <v>C.S. Lewis</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L29" t="str">
+        <v>Harry Potter and the Philosophers Stone</v>
+      </c>
+      <c r="M29" t="str">
+        <v>J.K. Rowling</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L30" t="str">
+        <v>The Hobbit</v>
+      </c>
+      <c r="M30" t="str">
+        <v>J.R.R. Tolkien</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L31" t="str">
+        <v>Harry Potter and the Deathly Hallows</v>
+      </c>
+      <c r="M31" t="str">
+        <v>J.K. Rowling</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L32" t="str">
+        <v>Harry Potter and the Gobblet of Fire</v>
+      </c>
+      <c r="M32" t="str">
+        <v>J.K. Rowling</v>
+      </c>
+    </row>
+    <row r="33" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L33" t="str">
+        <v>Harry Potter and the Chamber of Secrets</v>
+      </c>
+      <c r="M33" t="str">
+        <v>J.K. Rowling</v>
+      </c>
+    </row>
+    <row r="34" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L34" t="str">
+        <v>Harry Potter and the Half-Blood Prince</v>
+      </c>
+      <c r="M34" t="str">
+        <v>J.K. Rowling</v>
+      </c>
+    </row>
+    <row r="35" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L35" t="str">
+        <v>Harry Potter and the Prisoner of Azkaban</v>
+      </c>
+      <c r="M35" t="str">
+        <v>J.K. Rowling</v>
+      </c>
+    </row>
+    <row r="36" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L36" t="str">
+        <v>Harry Potter and the Order of the Phoenix</v>
+      </c>
+      <c r="M36" t="str">
+        <v>J.K. Rowling</v>
+      </c>
+    </row>
+    <row r="37" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L37" t="str">
+        <v>The Alchemist</v>
+      </c>
+      <c r="M37" t="str">
+        <v>Paulo Coelho</v>
+      </c>
+    </row>
+    <row r="38" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L38" t="str">
+        <v>A Tale of Two Cities</v>
+      </c>
+      <c r="M38" t="str">
+        <v>Charles Dickens</v>
+      </c>
+    </row>
+    <row r="39" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L39" t="str">
+        <v>And Then There Were None</v>
+      </c>
+      <c r="M39" t="str">
+        <v>Agatha Christie</v>
+      </c>
+    </row>
+    <row r="40" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L40" t="str">
+        <v>The Da Vinci Code</v>
+      </c>
+      <c r="M40" t="str">
+        <v>Dan Brown</v>
+      </c>
+    </row>
+    <row r="41" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L41" t="str">
+        <v>The Little Prince</v>
+      </c>
+      <c r="M41" t="str">
+        <v>Antoine de Saint-Exupery</v>
       </c>
     </row>
   </sheetData>
